--- a/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T14:55:10+01:00</t>
+    <t>2025-03-19T16:19:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="571">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-19T16:19:18+01:00</t>
+    <t>2025-03-25T16:42:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -799,9 +799,6 @@
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>in-progress</t>
   </si>
   <si>
     <t>required</t>
@@ -5076,28 +5073,28 @@
         <v>20</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -5130,13 +5127,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5144,14 +5141,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5170,16 +5167,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5208,11 +5205,11 @@
         <v>156</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
       </c>
@@ -5229,7 +5226,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5244,24 +5241,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>267</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5284,16 +5281,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5322,11 +5319,11 @@
         <v>156</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5343,7 +5340,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5361,21 +5358,21 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5484,10 +5481,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5598,10 +5595,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5627,16 +5624,16 @@
         <v>142</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5673,7 +5670,7 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -5683,7 +5680,7 @@
         <v>115</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5701,24 +5698,24 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5743,16 +5740,16 @@
         <v>142</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5762,7 +5759,7 @@
         <v>20</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5777,11 +5774,11 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5799,7 +5796,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5817,21 +5814,21 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5940,10 +5937,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6054,10 +6051,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6083,16 +6080,16 @@
         <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6141,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6159,21 +6156,21 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6199,13 +6196,13 @@
         <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6255,7 +6252,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6273,21 +6270,21 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6313,16 +6310,16 @@
         <v>166</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6371,7 +6368,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6389,21 +6386,21 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6429,16 +6426,16 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6487,7 +6484,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6505,21 +6502,21 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6542,19 +6539,19 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6603,7 +6600,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6621,21 +6618,21 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6661,16 +6658,16 @@
         <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6719,7 +6716,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6737,25 +6734,25 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6774,19 +6771,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6814,11 +6811,11 @@
         <v>156</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6835,7 +6832,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6847,27 +6844,27 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6976,10 +6973,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7090,10 +7087,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7119,16 +7116,16 @@
         <v>142</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7165,7 +7162,7 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7175,7 +7172,7 @@
         <v>115</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7193,24 +7190,24 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
@@ -7232,19 +7229,19 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="O45" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7254,7 +7251,7 @@
         <v>20</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>20</v>
@@ -7269,11 +7266,11 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7291,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7309,21 +7306,21 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7432,10 +7429,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7546,13 +7543,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>108</v>
@@ -7574,7 +7571,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>200</v>
@@ -7662,10 +7659,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7691,23 +7688,23 @@
         <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>20</v>
@@ -7749,7 +7746,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7767,21 +7764,21 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7807,13 +7804,13 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7863,7 +7860,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7881,21 +7878,21 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7921,16 +7918,16 @@
         <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7943,7 +7940,7 @@
         <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>20</v>
@@ -7979,7 +7976,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7991,27 +7988,27 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8037,16 +8034,16 @@
         <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8095,7 +8092,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8113,21 +8110,21 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8150,19 +8147,19 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8211,7 +8208,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8229,24 +8226,24 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>20</v>
@@ -8271,16 +8268,16 @@
         <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8290,7 +8287,7 @@
         <v>20</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>20</v>
@@ -8305,11 +8302,11 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8327,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8345,21 +8342,21 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8468,10 +8465,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8582,10 +8579,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8611,16 +8608,16 @@
         <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8669,7 +8666,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8687,21 +8684,21 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8727,13 +8724,13 @@
         <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8783,7 +8780,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8801,21 +8798,21 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8841,16 +8838,16 @@
         <v>166</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8899,7 +8896,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8917,21 +8914,21 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8957,16 +8954,16 @@
         <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9015,7 +9012,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9033,21 +9030,21 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9070,19 +9067,19 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9131,7 +9128,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9149,21 +9146,21 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9189,16 +9186,16 @@
         <v>102</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9247,7 +9244,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9265,25 +9262,25 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9302,7 +9299,7 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>241</v>
@@ -9361,7 +9358,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -9376,24 +9373,24 @@
         <v>243</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9416,7 +9413,7 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>241</v>
@@ -9475,7 +9472,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9490,24 +9487,24 @@
         <v>243</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9530,16 +9527,16 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9589,7 +9586,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9604,24 +9601,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9644,7 +9641,7 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>241</v>
@@ -9703,7 +9700,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9721,10 +9718,10 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>20</v>
@@ -9732,10 +9729,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9758,13 +9755,13 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>234</v>
@@ -9817,7 +9814,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9835,10 +9832,10 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -9846,10 +9843,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9872,13 +9869,13 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9929,7 +9926,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9944,10 +9941,10 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -9958,10 +9955,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10070,10 +10067,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10184,14 +10181,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10213,10 +10210,10 @@
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>112</v>
@@ -10271,7 +10268,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10300,10 +10297,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10326,19 +10323,19 @@
         <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10366,11 +10363,11 @@
         <v>156</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10387,7 +10384,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10402,24 +10399,24 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10442,19 +10439,19 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>234</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10503,7 +10500,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -10518,24 +10515,24 @@
         <v>235</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>465</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10558,19 +10555,19 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>234</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10619,7 +10616,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10637,7 +10634,7 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -10648,10 +10645,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10674,19 +10671,19 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>234</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10735,7 +10732,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10753,10 +10750,10 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>20</v>
@@ -10764,10 +10761,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10790,16 +10787,16 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10828,11 +10825,11 @@
         <v>156</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
       </c>
@@ -10849,7 +10846,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10864,24 +10861,24 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AM76" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="AN76" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10904,16 +10901,16 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10963,7 +10960,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10978,13 +10975,13 @@
         <v>235</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>20</v>
@@ -10992,10 +10989,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11018,16 +11015,16 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11056,11 +11053,11 @@
         <v>146</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="Z78" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
       </c>
@@ -11077,7 +11074,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11095,21 +11092,21 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11132,16 +11129,16 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11170,11 +11167,11 @@
         <v>156</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z79" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11209,21 +11206,21 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11246,16 +11243,16 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11305,7 +11302,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11323,7 +11320,7 @@
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11334,10 +11331,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11360,16 +11357,16 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11398,11 +11395,11 @@
         <v>156</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
       </c>
@@ -11419,7 +11416,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11437,21 +11434,21 @@
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11474,19 +11471,19 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>234</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -11535,7 +11532,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11553,7 +11550,7 @@
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
@@ -11564,10 +11561,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11590,16 +11587,16 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11628,11 +11625,11 @@
         <v>156</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
       </c>
@@ -11649,7 +11646,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11667,21 +11664,21 @@
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11704,16 +11701,16 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11763,7 +11760,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11778,24 +11775,24 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11818,13 +11815,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11875,7 +11872,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11893,7 +11890,7 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
@@ -11904,10 +11901,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12016,10 +12013,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12130,14 +12127,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12159,10 +12156,10 @@
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>112</v>
@@ -12217,7 +12214,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12246,10 +12243,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12272,16 +12269,16 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12310,11 +12307,11 @@
         <v>170</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12349,21 +12346,21 @@
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12386,13 +12383,13 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>234</v>
@@ -12445,7 +12442,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>86</v>
@@ -12463,7 +12460,7 @@
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
@@ -12474,10 +12471,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12500,19 +12497,19 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -12561,7 +12558,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12579,7 +12576,7 @@
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
@@ -12590,10 +12587,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12616,16 +12613,16 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12654,11 +12651,11 @@
         <v>156</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
       </c>
@@ -12675,7 +12672,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12693,13 +12690,13 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T16:42:03+01:00</t>
+    <t>2025-04-02T15:35:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}proc-mii-1:Falls die Prozedur per OPS kodiert wird, muss eine SNOMED-CT kodierte Category abgebildet werden {code.coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists() implies category.coding.where(system = 'http://snomed.info/sct').exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}proc-mii-1:Falls die Prozedur per OPS kodiert wird, MUSS eine SNOMED-CT kodierte Category abgebildet werden {code.coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists() implies category.coding.where(system = 'http://snomed.info/sct').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -625,9 +625,6 @@
 </t>
   </si>
   <si>
-    <t>Dokumentationsdatum der Prozedur</t>
-  </si>
-  <si>
     <t>Dokumentationsdatum der Prozedur, falls abweichend vom Durchführungsdatum</t>
   </si>
   <si>
@@ -641,10 +638,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Durchführungsabsicht</t>
+  </si>
+  <si>
+    <t>therapeutisch | palliativ | diagnostisch | präventiv | rehabilitativ | andere</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -768,18 +765,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Procedure|Observation)
 </t>
   </si>
   <si>
-    <t>A reference from one resource to another</t>
-  </si>
-  <si>
-    <t>A reference from one resource to another.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}mii-reference-1:Either reference.reference OR reference.identifier exists {($this.reference.exists() or ($this.identifier.value.exists() and $this.identifier.system.exists())) xor $this.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -791,10 +787,7 @@
     <t>Procedure.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally, this will be the in-progress or completed state.</t>
+    <t>Vorbereitung | in Arbeit | nicht durchgeführt | pausiert | abgebrochen | abgeschlossen | Eingabe fehlerhaft | unbekannt</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -857,10 +850,10 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Diagnostische Maßnahmen | Bildgebende Diagnostik | Operationen | Medikamente | Nichtoperative therapeutische Maßnahmen | Ergänzende Maßnahmen</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
@@ -916,6 +909,12 @@
   </si>
   <si>
     <t>sct</t>
+  </si>
+  <si>
+    <t>SNOMED CT Code</t>
+  </si>
+  <si>
+    <t>Ein Verweis auf einen von SNOMED CT definierten Code</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -1102,10 +1101,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+    <t>Code aus OPS - Operationen- und Prozedurenschlüssel, SNOMED CT oder andere.</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -1118,7 +1114,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-sct-ops-1:Entweder wird die Prozedur mit OPS oder SNOMED-CT kodiert. {coding.where(system = 'http://snomed.info/sct').exists() or coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists()}</t>
+sct-ops-1:Eine Prozedur MUSS mit OPS oder SNOMED-CT kodiert werden. {coding.where(system = 'http://snomed.info/sct').exists() or coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists()}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1152,7 +1148,10 @@
 </t>
   </si>
   <si>
-    <t>A reference to a code defined by a terminology system</t>
+    <t>Operationen- und Prozedurenschlüssel (OPS) Code</t>
+  </si>
+  <si>
+    <t>Ein Verweis auf einen vom Operationen- und Prozedurenschlüssel (OPS) definierten Code</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
@@ -1188,6 +1187,12 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>Procedure.code.coding:ops.system</t>
   </si>
   <si>
@@ -1244,7 +1249,7 @@
     <t>Procedure.code.coding:sct</t>
   </si>
   <si>
-    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-mii-code-procedure-beatmung-snomed</t>
+    <t>https://www.medizininformatik-initiative.de/fhir/ext/modul-icu/ValueSet/vs-mii-icu-code-procedure-beatmung-snomed</t>
   </si>
   <si>
     <t>Procedure.code.coding:sct.id</t>
@@ -1278,10 +1283,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1297,8 +1308,17 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1320,15 +1340,19 @@
 </t>
   </si>
   <si>
-    <t>When the procedure was performed</t>
-  </si>
-  <si>
-    <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
+    <t>Durchführungsdatum</t>
+  </si>
+  <si>
+    <t>Durchführungsdatum oder -zeitraum der Prozedur.</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1341,26 +1365,40 @@
     <t>OBR-7</t>
   </si>
   <si>
+    <t>Procedure.performed[x]:performedPeriod</t>
+  </si>
+  <si>
+    <t>performedPeriod</t>
+  </si>
+  <si>
+    <t>Durchführungszeitraum</t>
+  </si>
+  <si>
+    <t>Zeitraum, in dem die Prozedur durchgeführt wurde.</t>
+  </si>
+  <si>
     <t>Procedure.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
-</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Procedure.asserter</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
+    <t>Who recorded the procedure</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Procedure.asserter</t>
+  </si>
+  <si>
     <t>Person who asserts this procedure</t>
   </si>
   <si>
@@ -1561,10 +1599,10 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+    <t>Körperstelle</t>
+  </si>
+  <si>
+    <t>Körperstelle der Prozedur mittels SNOMED CT inklusive Lateralität.</t>
   </si>
   <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
@@ -1684,10 +1722,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure</t>
-  </si>
-  <si>
-    <t>Any other notes and comments about the procedure.</t>
+    <t>Hinweis</t>
+  </si>
+  <si>
+    <t>Zusätzliche Informationen zur Prozedur als Freitext.</t>
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
@@ -2115,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2134,7 +2172,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="115.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2149,7 +2187,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="115.25" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="114.8125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -4138,10 +4176,10 @@
         <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>112</v>
@@ -4223,13 +4261,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>108</v>
@@ -4251,13 +4289,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>112</v>
@@ -4339,10 +4377,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4368,16 +4406,16 @@
         <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4426,7 +4464,7 @@
         <v>115</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4455,10 +4493,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4481,19 +4519,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4542,7 +4580,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4557,24 +4595,24 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4597,16 +4635,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4656,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4671,10 +4709,10 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4685,10 +4723,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4714,13 +4752,13 @@
         <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4770,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4785,10 +4823,10 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4799,14 +4837,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4825,16 +4863,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4884,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4896,13 +4934,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4913,14 +4951,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4939,16 +4977,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4998,7 +5036,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5010,13 +5048,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -5027,10 +5065,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5056,13 +5094,13 @@
         <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5088,14 +5126,14 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5112,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -5127,13 +5165,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5141,14 +5179,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5167,16 +5205,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5205,10 +5243,10 @@
         <v>156</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5226,7 +5264,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5241,24 +5279,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5281,16 +5319,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5319,10 +5357,10 @@
         <v>156</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5340,7 +5378,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5358,21 +5396,21 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5481,10 +5519,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5595,10 +5633,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5624,16 +5662,16 @@
         <v>142</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5670,7 +5708,7 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -5680,7 +5718,7 @@
         <v>115</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5698,24 +5736,24 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5740,16 +5778,16 @@
         <v>142</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5774,7 +5812,7 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
@@ -5796,7 +5834,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5814,13 +5852,13 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6771,19 +6809,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6811,10 +6849,10 @@
         <v>156</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6844,27 +6882,27 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6973,10 +7011,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7087,10 +7125,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7116,16 +7154,16 @@
         <v>142</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7162,7 +7200,7 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7172,7 +7210,7 @@
         <v>115</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7190,24 +7228,24 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
@@ -7229,19 +7267,19 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7266,7 +7304,7 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
@@ -7288,7 +7326,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7306,13 +7344,13 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7574,10 +7612,10 @@
         <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>112</v>
@@ -7659,10 +7697,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7688,7 +7726,7 @@
         <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>297</v>
@@ -7704,7 +7742,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>20</v>
@@ -7775,10 +7813,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7804,10 +7842,10 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>307</v>
@@ -7889,10 +7927,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7918,7 +7956,7 @@
         <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>314</v>
@@ -7940,7 +7978,7 @@
         <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>20</v>
@@ -7988,7 +8026,7 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8005,10 +8043,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8121,10 +8159,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8237,13 +8275,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>20</v>
@@ -8268,16 +8306,16 @@
         <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8302,11 +8340,11 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8324,7 +8362,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8342,18 +8380,18 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>369</v>
@@ -8465,7 +8503,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>371</v>
@@ -8579,10 +8617,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8695,10 +8733,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8809,10 +8847,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8925,10 +8963,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9041,10 +9079,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9157,10 +9195,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9273,14 +9311,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9299,16 +9337,16 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>241</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9358,7 +9396,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -9370,27 +9408,27 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9413,16 +9451,16 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>234</v>
+        <v>417</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9472,7 +9510,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9484,27 +9522,27 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9527,16 +9565,16 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9574,19 +9612,17 @@
         <v>20</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9601,26 +9637,28 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9632,7 +9670,7 @@
         <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
@@ -9641,16 +9679,16 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>241</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9700,7 +9738,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9712,27 +9750,27 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9746,7 +9784,7 @@
         <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -9755,16 +9793,16 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9814,7 +9852,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9826,16 +9864,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -9843,10 +9881,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9857,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -9869,15 +9907,17 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -9926,28 +9966,28 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>20</v>
@@ -9955,10 +9995,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9969,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -9978,16 +10018,16 @@
         <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>103</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>104</v>
+        <v>450</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10038,25 +10078,25 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -10067,21 +10107,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -10093,17 +10133,15 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10140,37 +10178,37 @@
         <v>20</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -10181,14 +10219,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10201,26 +10239,24 @@
         <v>20</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O71" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10256,19 +10292,19 @@
         <v>20</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>446</v>
+        <v>116</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10297,45 +10333,45 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>450</v>
+        <v>204</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10360,13 +10396,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>452</v>
+        <v>20</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10384,39 +10420,39 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10424,7 +10460,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
@@ -10439,19 +10475,19 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>457</v>
+        <v>256</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10476,13 +10512,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>20</v>
+        <v>464</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10500,10 +10536,10 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>86</v>
@@ -10512,27 +10548,27 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10540,7 +10576,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10552,22 +10588,22 @@
         <v>20</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10616,10 +10652,10 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10628,27 +10664,27 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>20</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>20</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10668,22 +10704,22 @@
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10732,7 +10768,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10744,16 +10780,16 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>477</v>
+        <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>20</v>
@@ -10761,10 +10797,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10775,7 +10811,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -10787,18 +10823,20 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
       </c>
@@ -10822,13 +10860,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>483</v>
+        <v>20</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -10846,39 +10884,39 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>484</v>
+        <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10901,16 +10939,16 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>488</v>
+        <v>256</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10936,13 +10974,13 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>20</v>
+        <v>495</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>20</v>
+        <v>496</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -10960,7 +10998,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10972,27 +11010,27 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11006,7 +11044,7 @@
         <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>20</v>
@@ -11015,16 +11053,16 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>258</v>
+        <v>501</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11050,13 +11088,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>498</v>
+        <v>20</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11074,7 +11112,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11086,27 +11124,27 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>20</v>
+        <v>505</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11117,10 +11155,10 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>20</v>
@@ -11129,16 +11167,16 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11164,37 +11202,37 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Z79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AA79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>98</v>
@@ -11206,21 +11244,21 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>266</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11231,7 +11269,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -11240,19 +11278,19 @@
         <v>20</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>509</v>
+        <v>256</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11278,13 +11316,13 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>20</v>
+        <v>519</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11302,39 +11340,39 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11357,16 +11395,16 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>258</v>
+        <v>522</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11392,13 +11430,13 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>518</v>
+        <v>20</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11416,7 +11454,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11428,27 +11466,27 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11471,20 +11509,18 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>522</v>
+        <v>256</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
       </c>
@@ -11508,13 +11544,13 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>20</v>
+        <v>531</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -11532,7 +11568,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11544,27 +11580,27 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11587,18 +11623,20 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>258</v>
+        <v>535</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -11622,13 +11660,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>529</v>
+        <v>20</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>530</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -11646,7 +11684,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11658,27 +11696,27 @@
         <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11692,7 +11730,7 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>20</v>
@@ -11701,16 +11739,16 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>533</v>
+        <v>256</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>536</v>
+        <v>268</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11736,13 +11774,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>20</v>
+        <v>543</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -11760,7 +11798,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11775,24 +11813,24 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>539</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11806,7 +11844,7 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>20</v>
@@ -11815,15 +11853,17 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>435</v>
+        <v>546</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -11872,7 +11912,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11887,24 +11927,24 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>20</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11915,7 +11955,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -11927,13 +11967,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>103</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>104</v>
+        <v>555</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11984,25 +12024,25 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>105</v>
+        <v>553</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>106</v>
+        <v>556</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
@@ -12013,21 +12053,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -12039,17 +12079,15 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12086,37 +12124,37 @@
         <v>20</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -12127,14 +12165,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12147,26 +12185,24 @@
         <v>20</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O88" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12202,19 +12238,19 @@
         <v>20</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>446</v>
+        <v>116</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12243,44 +12279,46 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
       </c>
@@ -12304,13 +12342,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>551</v>
+        <v>20</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -12328,39 +12366,39 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>547</v>
+        <v>459</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>552</v>
+        <v>100</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12368,7 +12406,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12383,16 +12421,16 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>554</v>
+        <v>256</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12418,13 +12456,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>20</v>
+        <v>563</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>20</v>
+        <v>564</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -12442,10 +12480,10 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>86</v>
@@ -12454,27 +12492,27 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12482,10 +12520,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>20</v>
@@ -12497,20 +12535,18 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
       </c>
@@ -12558,25 +12594,25 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
@@ -12587,10 +12623,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12613,18 +12649,20 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>258</v>
+        <v>572</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
       </c>
@@ -12648,13 +12686,13 @@
         <v>20</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>568</v>
+        <v>20</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>569</v>
+        <v>20</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -12672,7 +12710,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12684,23 +12722,137 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>266</v>
+      <c r="AK93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12710,7 +12862,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$109</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3988" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:35:32+02:00</t>
+    <t>2025-04-11T09:40:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1070,6 +1070,36 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
+    <t>Procedure.category.coding:beatmungsform</t>
+  </si>
+  <si>
+    <t>beatmungsform</t>
+  </si>
+  <si>
+    <t>http://t-cabs.org/ValueSet/t-cabs-valueset-Beatmungsform</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.id</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.extension</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.system</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.version</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.code</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.display</t>
+  </si>
+  <si>
+    <t>Procedure.category.coding:beatmungsform.userSelected</t>
+  </si>
+  <si>
     <t>Procedure.category.text</t>
   </si>
   <si>
@@ -1273,6 +1303,36 @@
     <t>Procedure.code.coding:sct.userSelected</t>
   </si>
   <si>
+    <t>Procedure.code.coding:beatmungsmodus</t>
+  </si>
+  <si>
+    <t>beatmungsmodus</t>
+  </si>
+  <si>
+    <t>http://t-cabs.org/ValueSet/t-cabs-valueset-Beatmungsmodus</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.id</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.extension</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.system</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.version</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.code</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.display</t>
+  </si>
+  <si>
+    <t>Procedure.code.coding:beatmungsmodus.userSelected</t>
+  </si>
+  <si>
     <t>Procedure.code.text</t>
   </si>
   <si>
@@ -1798,7 +1858,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Medication|Substance)
+    <t xml:space="preserve">Reference(http://t-cabs.org/StructureDefinition/t-cabs-device-beatmungsgeraet)
 </t>
   </si>
   <si>
@@ -2153,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2162,7 +2222,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.62890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5644,7 +5704,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -6670,21 +6730,23 @@
         <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6693,19 +6755,19 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6730,13 +6792,11 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6754,13 +6814,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
@@ -6772,57 +6832,53 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>345</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6846,13 +6902,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6870,7 +6926,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6879,41 +6935,41 @@
         <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6925,15 +6981,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6970,31 +7028,31 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7011,44 +7069,46 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>110</v>
+        <v>296</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7084,51 +7144,51 @@
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7136,13 +7196,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
@@ -7151,20 +7211,18 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7200,26 +7258,28 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
@@ -7228,31 +7288,29 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>86</v>
@@ -7267,19 +7325,17 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7289,7 +7345,7 @@
         <v>20</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>20</v>
@@ -7304,11 +7360,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7326,16 +7384,16 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>99</v>
@@ -7344,21 +7402,21 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7378,19 +7436,21 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>104</v>
+        <v>323</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7438,7 +7498,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7450,38 +7510,38 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7490,21 +7550,23 @@
         <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7540,57 +7602,55 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>116</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>100</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7600,27 +7660,29 @@
         <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7668,43 +7730,43 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>100</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7723,26 +7785,26 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>63</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>20</v>
@@ -7760,13 +7822,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7784,7 +7846,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7796,27 +7858,27 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>362</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>302</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7824,32 +7886,30 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>103</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7898,7 +7958,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>308</v>
+        <v>105</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7907,66 +7967,64 @@
         <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>387</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7978,7 +8036,7 @@
         <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>20</v>
@@ -8002,51 +8060,51 @@
         <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>116</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>319</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8054,13 +8112,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
@@ -8069,19 +8127,19 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8118,25 +8176,23 @@
         <v>20</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
@@ -8148,23 +8204,25 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8176,7 +8234,7 @@
         <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
@@ -8185,19 +8243,19 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8207,7 +8265,7 @@
         <v>20</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>20</v>
@@ -8222,13 +8280,11 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8246,13 +8302,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -8264,25 +8320,23 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>337</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8294,29 +8348,25 @@
         <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>286</v>
+        <v>103</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8325,7 +8375,7 @@
         <v>20</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>20</v>
@@ -8340,11 +8390,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8362,50 +8414,50 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8417,15 +8469,17 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8462,37 +8516,37 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8503,12 +8557,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>108</v>
       </c>
@@ -8517,10 +8573,10 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
@@ -8529,13 +8585,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>109</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>110</v>
+        <v>385</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>112</v>
@@ -8576,16 +8632,16 @@
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>116</v>
@@ -8617,10 +8673,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8646,7 +8702,7 @@
         <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>297</v>
@@ -8662,7 +8718,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>20</v>
@@ -8733,10 +8789,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8744,13 +8800,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
@@ -8762,10 +8818,10 @@
         <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>307</v>
@@ -8847,10 +8903,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8876,7 +8932,7 @@
         <v>166</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>314</v>
@@ -8898,7 +8954,7 @@
         <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>20</v>
@@ -8946,7 +9002,7 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8963,10 +9019,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8980,7 +9036,7 @@
         <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>20</v>
@@ -9082,7 +9138,7 @@
         <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9195,12 +9251,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9212,7 +9270,7 @@
         <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>20</v>
@@ -9221,19 +9279,19 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9243,7 +9301,7 @@
         <v>20</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>20</v>
@@ -9258,13 +9316,11 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9282,13 +9338,13 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
@@ -9300,54 +9356,52 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>345</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9396,71 +9450,71 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>410</v>
+        <v>106</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>412</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>414</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>416</v>
+        <v>111</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>417</v>
+        <v>112</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9498,51 +9552,51 @@
         <v>20</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>413</v>
+        <v>116</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>421</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9565,18 +9619,20 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9612,17 +9668,19 @@
         <v>20</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>422</v>
+        <v>300</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9637,28 +9695,26 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>431</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9679,16 +9735,16 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>423</v>
+        <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>434</v>
+        <v>305</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>435</v>
+        <v>306</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>426</v>
+        <v>307</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9738,7 +9794,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9753,24 +9809,24 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>429</v>
+        <v>309</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>431</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9778,7 +9834,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>86</v>
@@ -9793,18 +9849,20 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>438</v>
+        <v>313</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>439</v>
+        <v>314</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
@@ -9852,7 +9910,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9864,27 +9922,27 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>441</v>
+        <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9898,7 +9956,7 @@
         <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>20</v>
@@ -9907,18 +9965,20 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>437</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>322</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>323</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
       </c>
@@ -9966,7 +10026,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>442</v>
+        <v>325</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9978,27 +10038,27 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10009,7 +10069,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -10021,16 +10081,20 @@
         <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>448</v>
+        <v>330</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
@@ -10078,13 +10142,13 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>447</v>
+        <v>335</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -10093,56 +10157,62 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>452</v>
+        <v>336</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -10166,13 +10236,11 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10190,50 +10258,50 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>379</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -10245,17 +10313,15 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10292,37 +10358,37 @@
         <v>20</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
@@ -10333,14 +10399,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>456</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10353,26 +10419,24 @@
         <v>20</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>458</v>
+        <v>111</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10408,19 +10472,19 @@
         <v>20</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>459</v>
+        <v>116</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10429,7 +10493,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>117</v>
@@ -10438,7 +10502,7 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -10449,10 +10513,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10460,13 +10524,13 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>20</v>
@@ -10475,19 +10539,19 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
+        <v>297</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>463</v>
+        <v>299</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10512,13 +10576,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>464</v>
+        <v>20</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>465</v>
+        <v>20</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10536,7 +10600,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10545,30 +10609,30 @@
         <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>466</v>
+        <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>467</v>
+        <v>301</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>468</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>469</v>
+        <v>392</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10576,7 +10640,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10591,20 +10655,18 @@
         <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>471</v>
+        <v>305</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>472</v>
+        <v>306</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>20</v>
       </c>
@@ -10652,39 +10714,39 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>474</v>
+        <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>475</v>
+        <v>309</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>476</v>
+        <v>20</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>477</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10692,34 +10754,32 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>482</v>
+        <v>316</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10768,7 +10828,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>478</v>
+        <v>317</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10777,30 +10837,30 @@
         <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>483</v>
+        <v>318</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>484</v>
+        <v>401</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10823,19 +10883,17 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>485</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>322</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>488</v>
+        <v>324</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -10884,7 +10942,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>484</v>
+        <v>325</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10893,30 +10951,30 @@
         <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>489</v>
+        <v>326</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>490</v>
+        <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>491</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10927,7 +10985,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>20</v>
@@ -10939,18 +10997,20 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>492</v>
+        <v>331</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>493</v>
+        <v>332</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
       </c>
@@ -10974,13 +11034,13 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>495</v>
+        <v>20</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>496</v>
+        <v>20</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -10998,39 +11058,39 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>491</v>
+        <v>335</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>498</v>
+        <v>336</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>499</v>
+        <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>264</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11041,7 +11101,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>20</v>
@@ -11053,18 +11113,20 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>501</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>502</v>
+        <v>349</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>503</v>
+        <v>350</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
       </c>
@@ -11112,50 +11174,50 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>500</v>
+        <v>353</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>505</v>
+        <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>499</v>
+        <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>20</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>87</v>
@@ -11167,16 +11229,16 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>426</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>509</v>
+        <v>233</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11202,13 +11264,13 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>511</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11226,39 +11288,39 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>512</v>
+        <v>430</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>513</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>514</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>514</v>
+        <v>433</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11272,7 +11334,7 @@
         <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>20</v>
@@ -11281,16 +11343,16 @@
         <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>515</v>
+        <v>435</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>516</v>
+        <v>436</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>517</v>
+        <v>437</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11316,13 +11378,13 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>518</v>
+        <v>20</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11340,7 +11402,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>514</v>
+        <v>433</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11352,27 +11414,27 @@
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>20</v>
+        <v>438</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>520</v>
+        <v>439</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>20</v>
+        <v>440</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>264</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11380,31 +11442,31 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>522</v>
+        <v>443</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>524</v>
+        <v>445</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11442,53 +11504,53 @@
         <v>20</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>20</v>
       </c>
@@ -11497,7 +11559,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
@@ -11506,19 +11568,19 @@
         <v>20</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>256</v>
+        <v>443</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>529</v>
+        <v>455</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>530</v>
+        <v>446</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11544,13 +11606,13 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>531</v>
+        <v>20</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>532</v>
+        <v>20</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -11568,13 +11630,13 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>527</v>
+        <v>442</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>98</v>
@@ -11583,24 +11645,24 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>533</v>
+        <v>449</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>264</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>534</v>
+        <v>456</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>534</v>
+        <v>456</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11611,32 +11673,30 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>535</v>
+        <v>457</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>537</v>
+        <v>459</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="O83" t="s" s="2">
-        <v>538</v>
-      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -11684,13 +11744,13 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>534</v>
+        <v>456</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>98</v>
@@ -11702,10 +11762,10 @@
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>20</v>
+        <v>461</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>20</v>
@@ -11713,10 +11773,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>539</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>539</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11727,7 +11787,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>20</v>
@@ -11736,19 +11796,19 @@
         <v>20</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>256</v>
+        <v>457</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>540</v>
+        <v>463</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>541</v>
+        <v>464</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11774,13 +11834,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>543</v>
+        <v>20</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -11798,39 +11858,39 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>539</v>
+        <v>462</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>544</v>
+        <v>465</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11844,26 +11904,24 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K85" t="s" s="2">
-        <v>546</v>
+        <v>468</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>547</v>
+        <v>469</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -11912,7 +11970,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11927,24 +11985,24 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>550</v>
+        <v>471</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>551</v>
+        <v>472</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>552</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11955,7 +12013,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -11967,13 +12025,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>448</v>
+        <v>102</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>554</v>
+        <v>103</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>555</v>
+        <v>104</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12024,25 +12082,25 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>553</v>
+        <v>105</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>556</v>
+        <v>106</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
@@ -12053,21 +12111,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -12079,15 +12137,17 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12124,37 +12184,37 @@
         <v>20</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -12165,14 +12225,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>558</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>558</v>
+        <v>475</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>108</v>
+        <v>476</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12185,24 +12245,26 @@
         <v>20</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>110</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>111</v>
+        <v>478</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12238,19 +12300,19 @@
         <v>20</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>116</v>
+        <v>479</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12279,45 +12341,45 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>204</v>
+        <v>483</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -12342,13 +12404,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>20</v>
+        <v>484</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>20</v>
+        <v>485</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -12366,39 +12428,39 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>20</v>
+        <v>486</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>100</v>
+        <v>487</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>20</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12406,7 +12468,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12418,21 +12480,23 @@
         <v>20</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>256</v>
+        <v>490</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
       </c>
@@ -12456,13 +12520,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>563</v>
+        <v>20</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>564</v>
+        <v>20</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -12480,10 +12544,10 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>86</v>
@@ -12492,27 +12556,27 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>20</v>
+        <v>494</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>20</v>
+        <v>496</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>264</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>566</v>
+        <v>498</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>566</v>
+        <v>498</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12520,7 +12584,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -12535,18 +12599,20 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>567</v>
+        <v>499</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>568</v>
+        <v>500</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>569</v>
+        <v>501</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="O91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
       </c>
@@ -12594,10 +12660,10 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>566</v>
+        <v>498</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12612,7 +12678,7 @@
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
@@ -12623,10 +12689,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12637,7 +12703,7 @@
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>20</v>
@@ -12646,22 +12712,22 @@
         <v>20</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>572</v>
+        <v>505</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>573</v>
+        <v>506</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>575</v>
+        <v>233</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -12710,13 +12776,13 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>98</v>
@@ -12728,10 +12794,10 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>20</v>
@@ -12739,10 +12805,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12762,19 +12828,19 @@
         <v>20</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>256</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>580</v>
+        <v>513</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12803,10 +12869,10 @@
         <v>156</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>581</v>
+        <v>515</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -12824,7 +12890,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>578</v>
+        <v>511</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>77</v>
@@ -12839,20 +12905,1846 @@
         <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>20</v>
+        <v>517</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>583</v>
+        <v>518</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>20</v>
+        <v>519</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>264</v>
       </c>
     </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN109">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12862,7 +14754,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI108">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-t-cabs-procedure-beatmung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T11:55:29+01:00</t>
+    <t>2025-11-20T17:13:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
